--- a/Analisi/Analisi Costi.xlsx
+++ b/Analisi/Analisi Costi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Arduino/Genuino UNO</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>Costo</t>
+  </si>
+  <si>
+    <t>Squadretta di fissaggio</t>
+  </si>
+  <si>
+    <t>shop-da.dkh.ch</t>
+  </si>
+  <si>
+    <t>Sito</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Viti per il legno 4mm diametro</t>
+  </si>
+  <si>
+    <t>Compensato abete rosso</t>
   </si>
 </sst>
 </file>
@@ -380,20 +398,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -403,8 +422,14 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -414,6 +439,44 @@
       <c r="C3" s="1">
         <f>15*A3</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <f>5.55</f>
+        <v>5.55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>10249209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <f>63*A6</f>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi/Analisi Costi.xlsx
+++ b/Analisi/Analisi Costi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Arduino/Genuino UNO</t>
   </si>
@@ -43,7 +43,13 @@
     <t>Viti per il legno 4mm diametro</t>
   </si>
   <si>
-    <t>Compensato abete rosso</t>
+    <t>Compensato abete rosso 1m x 1m spessore 24mm</t>
+  </si>
+  <si>
+    <t>coop edile+hobby</t>
+  </si>
+  <si>
+    <t>3.469.108</t>
   </si>
 </sst>
 </file>
@@ -401,15 +407,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,6 +484,12 @@
         <f>63*A6</f>
         <v>126</v>
       </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analisi/Analisi Costi.xlsx
+++ b/Analisi/Analisi Costi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Arduino/Genuino UNO</t>
   </si>
@@ -40,16 +40,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Viti per il legno 4mm diametro</t>
-  </si>
-  <si>
-    <t>Compensato abete rosso 1m x 1m spessore 24mm</t>
-  </si>
-  <si>
-    <t>coop edile+hobby</t>
-  </si>
-  <si>
-    <t>3.469.108</t>
+    <t>Viti per il legno 0.4 cm diametro</t>
+  </si>
+  <si>
+    <t>Compensato 100 cm x 100 cm spessore 2.5 cm</t>
   </si>
 </sst>
 </file>
@@ -407,13 +401,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -472,6 +466,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="1">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -480,16 +477,7 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
-        <f>63*A6</f>
-        <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
